--- a/data/mach8_SST_CL.xlsx
+++ b/data/mach8_SST_CL.xlsx
@@ -413,37 +413,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.0472540831573232</v>
+        <v>-0.0475639150516538</v>
       </c>
       <c r="C2">
-        <v>-0.0368119411884576</v>
+        <v>-0.0373480487634571</v>
       </c>
       <c r="D2">
-        <v>-0.0262234824536414</v>
+        <v>-0.0264894338505647</v>
       </c>
       <c r="E2">
-        <v>-0.0171035642724129</v>
+        <v>-0.0169121748485388</v>
       </c>
       <c r="F2">
-        <v>-0.0081579171869767</v>
+        <v>-0.008235434366976701</v>
       </c>
       <c r="G2">
-        <v>1.740187869180031E-05</v>
+        <v>-1.484335092042371E-05</v>
       </c>
       <c r="H2">
-        <v>0.0081579171869767</v>
+        <v>0.008235434366976701</v>
       </c>
       <c r="I2">
-        <v>0.0171035642724129</v>
+        <v>0.0169121748485388</v>
       </c>
       <c r="J2">
-        <v>0.0262234824536414</v>
+        <v>0.0264894338505647</v>
       </c>
       <c r="K2">
-        <v>0.0368119411884576</v>
+        <v>0.0373480487634571</v>
       </c>
       <c r="L2">
-        <v>0.0472540831573232</v>
+        <v>0.0475639150516538</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -451,37 +451,37 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.1190907864436319</v>
+        <v>0.1190087703891021</v>
       </c>
       <c r="C3">
-        <v>0.1289227819346987</v>
+        <v>0.1286378789809556</v>
       </c>
       <c r="D3">
-        <v>0.1388157736363673</v>
+        <v>0.1385058296055146</v>
       </c>
       <c r="E3">
-        <v>0.1478502664805006</v>
+        <v>0.1466680570554306</v>
       </c>
       <c r="F3">
-        <v>0.1566947258138652</v>
+        <v>0.1565921307404889</v>
       </c>
       <c r="G3">
-        <v>0.1656909196297703</v>
+        <v>0.1658116935774844</v>
       </c>
       <c r="H3">
-        <v>0.1742191183892971</v>
+        <v>0.1744061303968402</v>
       </c>
       <c r="I3">
-        <v>0.1836450198967889</v>
+        <v>0.1841118693138698</v>
       </c>
       <c r="J3">
-        <v>0.1940624828552883</v>
+        <v>0.1945692253651489</v>
       </c>
       <c r="K3">
-        <v>0.2057925152645114</v>
+        <v>0.2063821213701</v>
       </c>
       <c r="L3">
-        <v>0.215779985190603</v>
+        <v>0.2163529286710659</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -489,37 +489,37 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.2783127076963835</v>
+        <v>0.2786698408128963</v>
       </c>
       <c r="C4">
-        <v>0.2877851217719705</v>
+        <v>0.2879498594561258</v>
       </c>
       <c r="D4">
-        <v>0.2973055113231025</v>
+        <v>0.2974138754007891</v>
       </c>
       <c r="E4">
-        <v>0.3065245193920604</v>
+        <v>0.3068104195288848</v>
       </c>
       <c r="F4">
-        <v>0.3162543998264395</v>
+        <v>0.316737586799557</v>
       </c>
       <c r="G4">
-        <v>0.3266021960841132</v>
+        <v>0.3269675477477374</v>
       </c>
       <c r="H4">
-        <v>0.3353819452805084</v>
+        <v>0.3359081615753167</v>
       </c>
       <c r="I4">
-        <v>0.344909455021545</v>
+        <v>0.3451210876561981</v>
       </c>
       <c r="J4">
-        <v>0.3549204781757765</v>
+        <v>0.355271756185213</v>
       </c>
       <c r="K4">
-        <v>0.3664111870685807</v>
+        <v>0.3669404932527467</v>
       </c>
       <c r="L4">
-        <v>0.3751430157507099</v>
+        <v>0.3756099237106081</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -527,37 +527,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.1878698948213946</v>
+        <v>0.4342342180459366</v>
       </c>
       <c r="C5">
-        <v>0.4436790561540916</v>
+        <v>0.4440697401532293</v>
       </c>
       <c r="D5">
-        <v>0.4537873482842576</v>
+        <v>0.4537368732112503</v>
       </c>
       <c r="E5">
-        <v>0.464304270265868</v>
+        <v>0.4631305683860706</v>
       </c>
       <c r="F5">
-        <v>0.4748039641776114</v>
+        <v>0.4748088220737455</v>
       </c>
       <c r="G5">
-        <v>0.4863039572899165</v>
+        <v>0.4865248211568224</v>
       </c>
       <c r="H5">
-        <v>0.4947433214810971</v>
+        <v>0.4945013136701708</v>
       </c>
       <c r="I5">
-        <v>0.5036624983773426</v>
+        <v>0.5041860603291601</v>
       </c>
       <c r="J5">
-        <v>0.5129348882394746</v>
+        <v>0.5135761255450357</v>
       </c>
       <c r="K5">
-        <v>0.5236459844873993</v>
+        <v>0.5235032344931121</v>
       </c>
       <c r="L5">
-        <v>0.5316475408363428</v>
+        <v>0.5319755673328266</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -565,37 +565,37 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.5834126129451467</v>
+        <v>0.5838825903787779</v>
       </c>
       <c r="C6">
-        <v>0.5935897282349235</v>
+        <v>0.5944350344699164</v>
       </c>
       <c r="D6">
-        <v>0.6047299214832744</v>
+        <v>0.6048812117145431</v>
       </c>
       <c r="E6">
-        <v>0.6160920487298066</v>
+        <v>0.6163066807734613</v>
       </c>
       <c r="F6">
-        <v>0.6279948356023775</v>
+        <v>0.628501960880827</v>
       </c>
       <c r="G6">
-        <v>0.64014546570055</v>
+        <v>0.6412591286768823</v>
       </c>
       <c r="H6">
-        <v>0.6488712010546335</v>
+        <v>0.6489420522446204</v>
       </c>
       <c r="I6">
-        <v>0.6574157828364282</v>
+        <v>0.6568638852403206</v>
       </c>
       <c r="J6">
-        <v>0.6655784870200216</v>
+        <v>0.6654113009785412</v>
       </c>
       <c r="K6">
-        <v>0.6741956890288752</v>
+        <v>0.6739709030433418</v>
       </c>
       <c r="L6">
-        <v>0.6810419377232999</v>
+        <v>0.6811846183537238</v>
       </c>
     </row>
   </sheetData>
@@ -657,43 +657,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.0308692673282505</v>
+        <v>-0.0317139609882632</v>
       </c>
       <c r="C2">
-        <v>-0.0243299503164691</v>
+        <v>-0.0250877088345595</v>
       </c>
       <c r="D2">
-        <v>-0.0183506842261328</v>
+        <v>-0.0187986753107326</v>
       </c>
       <c r="E2">
-        <v>-0.0135450168752049</v>
+        <v>-0.0141551878501798</v>
       </c>
       <c r="F2">
-        <v>-0.009532826385922399</v>
+        <v>-0.009824823623096999</v>
       </c>
       <c r="G2">
-        <v>-0.0060008552863127</v>
-      </c>
-      <c r="H2">
-        <v>1.740187869180031E-05</v>
+        <v>-0.0063201682902091</v>
       </c>
       <c r="I2">
-        <v>0.0060008552863127</v>
+        <v>0.0063201682902091</v>
       </c>
       <c r="J2">
-        <v>0.009532826385922399</v>
+        <v>0.009824823623096999</v>
       </c>
       <c r="K2">
-        <v>0.0135450168752049</v>
+        <v>0.0141551878501798</v>
       </c>
       <c r="L2">
-        <v>0.0183506842261328</v>
+        <v>0.0187986753107326</v>
       </c>
       <c r="M2">
-        <v>0.0243299503164691</v>
+        <v>0.0250877088345595</v>
       </c>
       <c r="N2">
-        <v>0.0308692673282505</v>
+        <v>0.0317139609882632</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -701,43 +698,40 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.1401506937017294</v>
+        <v>0.1389299465788229</v>
       </c>
       <c r="C3">
-        <v>0.1446786619712208</v>
+        <v>0.1431824638342293</v>
       </c>
       <c r="D3">
-        <v>0.1486033542020185</v>
+        <v>0.1478914786685556</v>
       </c>
       <c r="E3">
-        <v>0.1521515774527828</v>
+        <v>0.1515327486706268</v>
       </c>
       <c r="F3">
-        <v>10.42767328117798</v>
+        <v>0.1550515608868887</v>
       </c>
       <c r="G3">
-        <v>0.1585783048872336</v>
-      </c>
-      <c r="H3">
-        <v>0.1656909196297703</v>
+        <v>0.1585295449362496</v>
       </c>
       <c r="I3">
-        <v>0.1729179804480799</v>
+        <v>0.1730380617151891</v>
       </c>
       <c r="J3">
-        <v>0.1773816781967894</v>
+        <v>0.1774260443822259</v>
       </c>
       <c r="K3">
-        <v>0.1830984109444039</v>
+        <v>0.1833108375056933</v>
       </c>
       <c r="L3">
-        <v>0.1897634490003774</v>
+        <v>0.1890143521189786</v>
       </c>
       <c r="M3">
-        <v>0.1974332109255294</v>
+        <v>0.1973232600374278</v>
       </c>
       <c r="N3">
-        <v>0.2057082616728927</v>
+        <v>0.2053525977585993</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -745,43 +739,40 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.2993344471913579</v>
+        <v>0.2985230957951621</v>
       </c>
       <c r="C4">
-        <v>0.3029732969710323</v>
+        <v>0.3022208641018801</v>
       </c>
       <c r="D4">
-        <v>0.3064134763230147</v>
+        <v>0.3063129512081697</v>
       </c>
       <c r="E4">
-        <v>0.3097707347612546</v>
+        <v>0.3096034065025896</v>
       </c>
       <c r="F4">
-        <v>0.3131313652088291</v>
+        <v>0.3135040706757694</v>
       </c>
       <c r="G4">
-        <v>0.3169444985298404</v>
-      </c>
-      <c r="H4">
-        <v>0.3266021960841132</v>
+        <v>0.3174530945490932</v>
       </c>
       <c r="I4">
-        <v>0.3348406699582373</v>
+        <v>0.3353369561268431</v>
       </c>
       <c r="J4">
-        <v>0.3402657657023095</v>
+        <v>0.3403191173978784</v>
       </c>
       <c r="K4">
-        <v>0.3468346097638315</v>
+        <v>0.3467180359400411</v>
       </c>
       <c r="L4">
-        <v>0.3540267356790236</v>
+        <v>0.353906504533283</v>
       </c>
       <c r="M4">
-        <v>0.3621493071996596</v>
+        <v>0.3613469751088571</v>
       </c>
       <c r="N4">
-        <v>0.3700418561301502</v>
+        <v>0.3694905722707386</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -789,43 +780,40 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.4528902946589642</v>
+        <v>0.4527652039930396</v>
       </c>
       <c r="C5">
-        <v>0.4570121185737649</v>
+        <v>0.4567665005992738</v>
       </c>
       <c r="D5">
-        <v>0.4603578496037018</v>
+        <v>0.460907800714938</v>
       </c>
       <c r="E5">
-        <v>0.4645174656693334</v>
+        <v>0.4645877115715114</v>
       </c>
       <c r="F5">
-        <v>31.48052204222613</v>
+        <v>0.4692425398555324</v>
       </c>
       <c r="G5">
-        <v>0.4738363465635848</v>
-      </c>
-      <c r="H5">
-        <v>0.4863039572899165</v>
+        <v>0.4742429197513615</v>
       </c>
       <c r="I5">
-        <v>0.4941073180520265</v>
+        <v>0.4950254221569795</v>
       </c>
       <c r="J5">
-        <v>0.4996819443464056</v>
+        <v>0.4999865929185053</v>
       </c>
       <c r="K5">
-        <v>0.5069099187037938</v>
+        <v>0.5065517327473656</v>
       </c>
       <c r="L5">
-        <v>0.5135471450833822</v>
+        <v>0.5129998875034908</v>
       </c>
       <c r="M5">
-        <v>0.521824275735753</v>
+        <v>0.5211451946917947</v>
       </c>
       <c r="N5">
-        <v>0.5288010099966478</v>
+        <v>0.5282461764005408</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -833,43 +821,40 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.6002249555017485</v>
+        <v>0.6008470828836898</v>
       </c>
       <c r="C6">
-        <v>0.6052305178748117</v>
+        <v>0.6056394571776134</v>
       </c>
       <c r="D6">
-        <v>0.6091315805671158</v>
+        <v>0.6102740390458742</v>
       </c>
       <c r="E6">
-        <v>0.6141353354525732</v>
+        <v>0.6147755857496064</v>
       </c>
       <c r="F6">
-        <v>0.6197477108434288</v>
+        <v>0.6165689847104809</v>
       </c>
       <c r="G6">
-        <v>0.6261854229247806</v>
-      </c>
-      <c r="H6">
-        <v>0.64014546570055</v>
+        <v>0.6267051597277622</v>
       </c>
       <c r="I6">
-        <v>0.647924115815719</v>
+        <v>0.6487736650081406</v>
       </c>
       <c r="J6">
-        <v>0.6533735801431539</v>
+        <v>0.6540442888457254</v>
       </c>
       <c r="K6">
-        <v>0.6599015025485554</v>
+        <v>0.6598255114631757</v>
       </c>
       <c r="L6">
-        <v>0.6663939629221456</v>
+        <v>0.6661926731241573</v>
       </c>
       <c r="M6">
-        <v>0.6738387631537627</v>
+        <v>0.6735800877656247</v>
       </c>
       <c r="N6">
-        <v>0.6811333511283079</v>
+        <v>0.6804586629865801</v>
       </c>
     </row>
   </sheetData>

--- a/data/mach8_SST_CL.xlsx
+++ b/data/mach8_SST_CL.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\s301312\Documents\p_programs\exp_post\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47955D0-957A-4E67-A03E-E034D4CDD98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="17520" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fin" sheetId="1" r:id="rId1"/>
     <sheet name="flap" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,24 +74,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -123,7 +138,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -157,6 +172,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -191,9 +207,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -366,14 +383,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>-12.5</v>
       </c>
@@ -408,45 +425,45 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.0475639150516538</v>
+        <v>-4.7563915051653798E-2</v>
       </c>
       <c r="C2">
-        <v>-0.0373480487634571</v>
+        <v>-3.7348048763457098E-2</v>
       </c>
       <c r="D2">
-        <v>-0.0264894338505647</v>
+        <v>-2.6489433850564702E-2</v>
       </c>
       <c r="E2">
-        <v>-0.0169121748485388</v>
+        <v>-1.69121748485388E-2</v>
       </c>
       <c r="F2">
-        <v>-0.008235434366976701</v>
+        <v>-8.2354343669767006E-3</v>
       </c>
       <c r="G2">
-        <v>-1.484335092042371E-05</v>
+        <v>-1.4843350920423709E-5</v>
       </c>
       <c r="H2">
-        <v>0.008235434366976701</v>
+        <v>8.2354343669767006E-3</v>
       </c>
       <c r="I2">
-        <v>0.0169121748485388</v>
+        <v>1.69121748485388E-2</v>
       </c>
       <c r="J2">
-        <v>0.0264894338505647</v>
+        <v>2.6489433850564702E-2</v>
       </c>
       <c r="K2">
-        <v>0.0373480487634571</v>
+        <v>3.7348048763457098E-2</v>
       </c>
       <c r="L2">
-        <v>0.0475639150516538</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>4.7563915051653798E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -454,22 +471,22 @@
         <v>0.1190087703891021</v>
       </c>
       <c r="C3">
-        <v>0.1286378789809556</v>
+        <v>0.12863787898095561</v>
       </c>
       <c r="D3">
-        <v>0.1385058296055146</v>
+        <v>0.13850582960551461</v>
       </c>
       <c r="E3">
         <v>0.1466680570554306</v>
       </c>
       <c r="F3">
-        <v>0.1565921307404889</v>
+        <v>0.15659213074048889</v>
       </c>
       <c r="G3">
         <v>0.1658116935774844</v>
       </c>
       <c r="H3">
-        <v>0.1744061303968402</v>
+        <v>0.17440613039684019</v>
       </c>
       <c r="I3">
         <v>0.1841118693138698</v>
@@ -478,124 +495,124 @@
         <v>0.1945692253651489</v>
       </c>
       <c r="K3">
-        <v>0.2063821213701</v>
+        <v>0.20638212137010001</v>
       </c>
       <c r="L3">
         <v>0.2163529286710659</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.2786698408128963</v>
+        <v>0.27866984081289631</v>
       </c>
       <c r="C4">
-        <v>0.2879498594561258</v>
+        <v>0.28794985945612578</v>
       </c>
       <c r="D4">
-        <v>0.2974138754007891</v>
+        <v>0.29741387540078912</v>
       </c>
       <c r="E4">
-        <v>0.3068104195288848</v>
+        <v>0.30681041952888483</v>
       </c>
       <c r="F4">
-        <v>0.316737586799557</v>
+        <v>0.31673758679955699</v>
       </c>
       <c r="G4">
         <v>0.3269675477477374</v>
       </c>
       <c r="H4">
-        <v>0.3359081615753167</v>
+        <v>0.33590816157531672</v>
       </c>
       <c r="I4">
-        <v>0.3451210876561981</v>
+        <v>0.34512108765619809</v>
       </c>
       <c r="J4">
-        <v>0.355271756185213</v>
+        <v>0.35527175618521301</v>
       </c>
       <c r="K4">
-        <v>0.3669404932527467</v>
+        <v>0.36694049325274669</v>
       </c>
       <c r="L4">
-        <v>0.3756099237106081</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.37560992371060808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.4342342180459366</v>
+        <v>0.43423421804593659</v>
       </c>
       <c r="C5">
-        <v>0.4440697401532293</v>
+        <v>0.44406974015322931</v>
       </c>
       <c r="D5">
-        <v>0.4537368732112503</v>
+        <v>0.45373687321125028</v>
       </c>
       <c r="E5">
-        <v>0.4631305683860706</v>
+        <v>0.46313056838607058</v>
       </c>
       <c r="F5">
-        <v>0.4748088220737455</v>
+        <v>0.47480882207374547</v>
       </c>
       <c r="G5">
-        <v>0.4865248211568224</v>
+        <v>0.48652482115682238</v>
       </c>
       <c r="H5">
-        <v>0.4945013136701708</v>
+        <v>0.49450131367017081</v>
       </c>
       <c r="I5">
-        <v>0.5041860603291601</v>
+        <v>0.50418606032916014</v>
       </c>
       <c r="J5">
-        <v>0.5135761255450357</v>
+        <v>0.51357612554503573</v>
       </c>
       <c r="K5">
-        <v>0.5235032344931121</v>
+        <v>0.52350323449311209</v>
       </c>
       <c r="L5">
-        <v>0.5319755673328266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.53197556733282658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.5838825903787779</v>
+        <v>0.58388259037877788</v>
       </c>
       <c r="C6">
-        <v>0.5944350344699164</v>
+        <v>0.59443503446991641</v>
       </c>
       <c r="D6">
-        <v>0.6048812117145431</v>
+        <v>0.60488121171454312</v>
       </c>
       <c r="E6">
-        <v>0.6163066807734613</v>
+        <v>0.61630668077346129</v>
       </c>
       <c r="F6">
-        <v>0.628501960880827</v>
+        <v>0.62850196088082699</v>
       </c>
       <c r="G6">
-        <v>0.6412591286768823</v>
+        <v>0.64125912867688228</v>
       </c>
       <c r="H6">
-        <v>0.6489420522446204</v>
+        <v>0.64894205224462043</v>
       </c>
       <c r="I6">
-        <v>0.6568638852403206</v>
+        <v>0.65686388524032058</v>
       </c>
       <c r="J6">
-        <v>0.6654113009785412</v>
+        <v>0.66541130097854118</v>
       </c>
       <c r="K6">
-        <v>0.6739709030433418</v>
+        <v>0.67397090304334184</v>
       </c>
       <c r="L6">
-        <v>0.6811846183537238</v>
+        <v>0.68118461835372379</v>
       </c>
     </row>
   </sheetData>
@@ -604,14 +621,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>-17.5</v>
       </c>
@@ -652,48 +671,51 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.0317139609882632</v>
+        <v>-3.17139609882632E-2</v>
       </c>
       <c r="C2">
-        <v>-0.0250877088345595</v>
+        <v>-2.5087708834559502E-2</v>
       </c>
       <c r="D2">
-        <v>-0.0187986753107326</v>
+        <v>-1.87986753107326E-2</v>
       </c>
       <c r="E2">
-        <v>-0.0141551878501798</v>
+        <v>-1.4155187850179799E-2</v>
       </c>
       <c r="F2">
-        <v>-0.009824823623096999</v>
+        <v>-9.8248236230969992E-3</v>
       </c>
       <c r="G2">
-        <v>-0.0063201682902091</v>
+        <v>-6.3201682902090999E-3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-1.4843399999999999E-5</v>
       </c>
       <c r="I2">
-        <v>0.0063201682902091</v>
+        <v>6.3201682902090999E-3</v>
       </c>
       <c r="J2">
-        <v>0.009824823623096999</v>
+        <v>9.8248236230969992E-3</v>
       </c>
       <c r="K2">
-        <v>0.0141551878501798</v>
+        <v>1.4155187850179799E-2</v>
       </c>
       <c r="L2">
-        <v>0.0187986753107326</v>
+        <v>1.87986753107326E-2</v>
       </c>
       <c r="M2">
-        <v>0.0250877088345595</v>
+        <v>2.5087708834559502E-2</v>
       </c>
       <c r="N2">
-        <v>0.0317139609882632</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>3.17139609882632E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -701,25 +723,28 @@
         <v>0.1389299465788229</v>
       </c>
       <c r="C3">
-        <v>0.1431824638342293</v>
+        <v>0.14318246383422931</v>
       </c>
       <c r="D3">
-        <v>0.1478914786685556</v>
+        <v>0.14789147866855559</v>
       </c>
       <c r="E3">
         <v>0.1515327486706268</v>
       </c>
       <c r="F3">
-        <v>0.1550515608868887</v>
+        <v>0.15505156088688871</v>
       </c>
       <c r="G3">
         <v>0.1585295449362496</v>
       </c>
+      <c r="H3">
+        <v>0.16581169400000001</v>
+      </c>
       <c r="I3">
         <v>0.1730380617151891</v>
       </c>
       <c r="J3">
-        <v>0.1774260443822259</v>
+        <v>0.17742604438222589</v>
       </c>
       <c r="K3">
         <v>0.1833108375056933</v>
@@ -728,54 +753,57 @@
         <v>0.1890143521189786</v>
       </c>
       <c r="M3">
-        <v>0.1973232600374278</v>
+        <v>0.19732326003742781</v>
       </c>
       <c r="N3">
-        <v>0.2053525977585993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>0.20535259775859929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.2985230957951621</v>
+        <v>0.29852309579516212</v>
       </c>
       <c r="C4">
-        <v>0.3022208641018801</v>
+        <v>0.30222086410188009</v>
       </c>
       <c r="D4">
         <v>0.3063129512081697</v>
       </c>
       <c r="E4">
-        <v>0.3096034065025896</v>
+        <v>0.30960340650258961</v>
       </c>
       <c r="F4">
-        <v>0.3135040706757694</v>
+        <v>0.31350407067576941</v>
       </c>
       <c r="G4">
-        <v>0.3174530945490932</v>
+        <v>0.31745309454909321</v>
+      </c>
+      <c r="H4">
+        <v>0.326967548</v>
       </c>
       <c r="I4">
-        <v>0.3353369561268431</v>
+        <v>0.33533695612684311</v>
       </c>
       <c r="J4">
         <v>0.3403191173978784</v>
       </c>
       <c r="K4">
-        <v>0.3467180359400411</v>
+        <v>0.34671803594004108</v>
       </c>
       <c r="L4">
-        <v>0.353906504533283</v>
+        <v>0.35390650453328298</v>
       </c>
       <c r="M4">
         <v>0.3613469751088571</v>
       </c>
       <c r="N4">
-        <v>0.3694905722707386</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0.36949057227073862</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>15</v>
       </c>
@@ -783,78 +811,84 @@
         <v>0.4527652039930396</v>
       </c>
       <c r="C5">
-        <v>0.4567665005992738</v>
+        <v>0.45676650059927382</v>
       </c>
       <c r="D5">
-        <v>0.460907800714938</v>
+        <v>0.46090780071493798</v>
       </c>
       <c r="E5">
-        <v>0.4645877115715114</v>
+        <v>0.46458771157151141</v>
       </c>
       <c r="F5">
-        <v>0.4692425398555324</v>
+        <v>0.46924253985553238</v>
       </c>
       <c r="G5">
-        <v>0.4742429197513615</v>
+        <v>0.47424291975136151</v>
+      </c>
+      <c r="H5">
+        <v>0.486524821</v>
       </c>
       <c r="I5">
-        <v>0.4950254221569795</v>
+        <v>0.49502542215697948</v>
       </c>
       <c r="J5">
-        <v>0.4999865929185053</v>
+        <v>0.49998659291850528</v>
       </c>
       <c r="K5">
-        <v>0.5065517327473656</v>
+        <v>0.50655173274736565</v>
       </c>
       <c r="L5">
-        <v>0.5129998875034908</v>
+        <v>0.51299988750349079</v>
       </c>
       <c r="M5">
-        <v>0.5211451946917947</v>
+        <v>0.52114519469179466</v>
       </c>
       <c r="N5">
-        <v>0.5282461764005408</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>0.52824617640054083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.6008470828836898</v>
+        <v>0.60084708288368982</v>
       </c>
       <c r="C6">
-        <v>0.6056394571776134</v>
+        <v>0.60563945717761336</v>
       </c>
       <c r="D6">
-        <v>0.6102740390458742</v>
+        <v>0.61027403904587418</v>
       </c>
       <c r="E6">
-        <v>0.6147755857496064</v>
+        <v>0.61477558574960645</v>
       </c>
       <c r="F6">
-        <v>0.6165689847104809</v>
+        <v>0.61656898471048094</v>
       </c>
       <c r="G6">
         <v>0.6267051597277622</v>
       </c>
+      <c r="H6">
+        <v>0.64125912900000004</v>
+      </c>
       <c r="I6">
         <v>0.6487736650081406</v>
       </c>
       <c r="J6">
-        <v>0.6540442888457254</v>
+        <v>0.65404428884572541</v>
       </c>
       <c r="K6">
         <v>0.6598255114631757</v>
       </c>
       <c r="L6">
-        <v>0.6661926731241573</v>
+        <v>0.66619267312415731</v>
       </c>
       <c r="M6">
-        <v>0.6735800877656247</v>
+        <v>0.67358008776562472</v>
       </c>
       <c r="N6">
-        <v>0.6804586629865801</v>
+        <v>0.68045866298658009</v>
       </c>
     </row>
   </sheetData>
